--- a/biology/Médecine/Potentiel_hydrogène/Potentiel_hydrogène.xlsx
+++ b/biology/Médecine/Potentiel_hydrogène/Potentiel_hydrogène.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Potentiel_hydrog%C3%A8ne</t>
+          <t>Potentiel_hydrogène</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le potentiel hydrogène, noté pH, est une mesure de l'activité chimique des protons ou ions hydrogène[note 1] en solution. Notamment, en solution aqueuse, ces ions sont présents sous forme d'ions hydronium (ion H+ hydraté, ou H3O+).
 Le pH sert à mesurer l’acidité ou la basicité d’une solution. Ainsi, dans un milieu aqueux à 25 °C :
@@ -497,7 +509,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Potentiel_hydrog%C3%A8ne</t>
+          <t>Potentiel_hydrogène</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,9 +527,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1909[2], le chimiste danois Søren Sørensen, qui travaille alors au laboratoire Carlsberg à Copenhague sur les effets des concentrations de quelques ions sur des protéines lors des processus de fabrication de la bière, remarque l'importance des ions hydrogène et décide d'introduire le concept de pH[3]. Dans l'article où est évoqué le pH pour la première fois, Sørensen utilise la notation pH[4]. Dans cette publication, il donne au sigle la signification en latin Pondus Hydrogenii (« poids de l'hydrogène »), mais dans les comptes-rendus de travaux qu'il rédige au sein du laboratoire Carlsberg de l'université de Copenhague la même année, p est l'abréviation du mot allemand potenz (potentiel) et H est le symbole de l'hydrogène[5]. Sørensen définit alors l'acidité d'une solution comme étant le cologarithme décimal de la concentration molaire (exprimée en moles par litre) en ions hydrogène :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1909, le chimiste danois Søren Sørensen, qui travaille alors au laboratoire Carlsberg à Copenhague sur les effets des concentrations de quelques ions sur des protéines lors des processus de fabrication de la bière, remarque l'importance des ions hydrogène et décide d'introduire le concept de pH. Dans l'article où est évoqué le pH pour la première fois, Sørensen utilise la notation pH. Dans cette publication, il donne au sigle la signification en latin Pondus Hydrogenii (« poids de l'hydrogène »), mais dans les comptes-rendus de travaux qu'il rédige au sein du laboratoire Carlsberg de l'université de Copenhague la même année, p est l'abréviation du mot allemand potenz (potentiel) et H est le symbole de l'hydrogène. Sørensen définit alors l'acidité d'une solution comme étant le cologarithme décimal de la concentration molaire (exprimée en moles par litre) en ions hydrogène :
           p
           H
         =
@@ -530,8 +544,8 @@
               +
           ]
     {\displaystyle \mathrm {pH} =-\log _{10}\left[\mathrm {H} ^{+}\right]}
-Le principe d'une telle échelle de pH est accepté par la communauté scientifique, notamment grâce au chimiste allemand Leonor Michaelis, qui publie en 1909 un livre sur la concentration en ion hydronium (H3O+)[6].
-En 1924, à la suite de l'introduction du concept d'activité, Sørensen publie un article précisant que le pH dépend plutôt de l'activité que de la concentration en H+[7]. Entretemps, la notation pH a été adoptée, sans que l'on sache qui en a été l'initiateur :
+Le principe d'une telle échelle de pH est accepté par la communauté scientifique, notamment grâce au chimiste allemand Leonor Michaelis, qui publie en 1909 un livre sur la concentration en ion hydronium (H3O+).
+En 1924, à la suite de l'introduction du concept d'activité, Sørensen publie un article précisant que le pH dépend plutôt de l'activité que de la concentration en H+. Entretemps, la notation pH a été adoptée, sans que l'on sache qui en a été l'initiateur :
           p
           H
         =
@@ -544,8 +558,8 @@
             +
         )
     {\displaystyle \mathrm {pH} =-\log _{10}\;a(\mathrm {H} ^{+})}
-Par la suite, la lettre « p » est reprise dans plusieurs notations usuelles en chimie, pour désigner le cologarithme : pK, pOH, pCl, etc. La signification du sigle « pH » a été adaptée par chaque langue. Ainsi, par pH, on entendra « potentiel hydrogène »[8],[9] en français, « Potenz Hydrogene » en allemand, « potential hydrogen »[10] en anglais, ou « potencial hidrógeno » en espagnol.
-La notion d'acidité, qui était à l'origine uniquement qualitative, s'est vue dotée d'un caractère quantitatif avec les apports de la théorie de Brønsted-Lowry et du pH. Alors qu'au début du XXe siècle on utilisait uniquement des indicateurs de pH pour justifier du caractère acide ou basique d'une solution, les évolutions en électrochimie ont permis à l'IUPAC de proposer dans les années 1990 une nouvelle définition du pH, permettant des mesures plus précises[3].
+Par la suite, la lettre « p » est reprise dans plusieurs notations usuelles en chimie, pour désigner le cologarithme : pK, pOH, pCl, etc. La signification du sigle « pH » a été adaptée par chaque langue. Ainsi, par pH, on entendra « potentiel hydrogène », en français, « Potenz Hydrogene » en allemand, « potential hydrogen » en anglais, ou « potencial hidrógeno » en espagnol.
+La notion d'acidité, qui était à l'origine uniquement qualitative, s'est vue dotée d'un caractère quantitatif avec les apports de la théorie de Brønsted-Lowry et du pH. Alors qu'au début du XXe siècle on utilisait uniquement des indicateurs de pH pour justifier du caractère acide ou basique d'une solution, les évolutions en électrochimie ont permis à l'IUPAC de proposer dans les années 1990 une nouvelle définition du pH, permettant des mesures plus précises.
 </t>
         </is>
       </c>
@@ -556,7 +570,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Potentiel_hydrog%C3%A8ne</t>
+          <t>Potentiel_hydrogène</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -576,10 +590,50 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hydratation des ions H+ et nomenclature
-L'ion hydronium (H3O+) peut être considéré comme étant le plus simple des ions oxonium, R–OH2+ (où le groupement R est ici remplacé par H) tel que défini par la nomenclature en chimie organique, car les ions H+ sont hydratés et s’associent à une des deux paires électroniques libres de la molécule H2O (base de Lewis donnant au proton sa paire électronique). Le proton (H+) est également le plus simple des acides au sens de Lewis, car il accepte une paire d'électrons.
-Définition classique
-Depuis le milieu du XXe siècle, l’IUPAC reconnaît officiellement la définition de Sørensen du pH[11] :
+          <t>Hydratation des ions H+ et nomenclature</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'ion hydronium (H3O+) peut être considéré comme étant le plus simple des ions oxonium, R–OH2+ (où le groupement R est ici remplacé par H) tel que défini par la nomenclature en chimie organique, car les ions H+ sont hydratés et s’associent à une des deux paires électroniques libres de la molécule H2O (base de Lewis donnant au proton sa paire électronique). Le proton (H+) est également le plus simple des acides au sens de Lewis, car il accepte une paire d'électrons.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Potentiel_hydrogène</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Potentiel_hydrog%C3%A8ne</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Définitions</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Définition classique</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Depuis le milieu du XXe siècle, l’IUPAC reconnaît officiellement la définition de Sørensen du pH :
           p
           H
         =
@@ -590,8 +644,43 @@
     {\displaystyle \mathrm {pH} =-\log \,\,a_{\mathrm {H} }}
 où aH (également noté a(H+) ou {H+}) désigne l’activité des ions hydrogène H+, sans dimension. Le pH est lui-même une grandeur sans dimension.
 Cette définition formelle ne permet pas des mesures directes de pH, ni même des calculs. Le fait que le pH dépende de l’activité des ions hydrogène induit que le pH dépend de plusieurs autres facteurs, tels que l’influence du solvant. Toutefois, il est possible d’obtenir des valeurs approchées de pH par le calcul, à l’aide de définitions plus ou moins exactes de l’activité.
-Loi de Nernst
-L’IUPAC donne aujourd’hui une définition du pH à partir d’une méthode électrochimique expérimentale. Elle consiste à utiliser la relation de Nernst dans la cellule électrochimique suivante :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Potentiel_hydrogène</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Potentiel_hydrog%C3%A8ne</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Définitions</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Loi de Nernst</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’IUPAC donne aujourd’hui une définition du pH à partir d’une méthode électrochimique expérimentale. Elle consiste à utiliser la relation de Nernst dans la cellule électrochimique suivante :
 Électrode de référence | Solution de KCl concentré | Solution X | H2 | Pt (électrode à hydrogène)
 À l’aide de mesures de la force électromotrice (notée fem ou f.e.m.) de la cellule avec une solution X et une solution S de référence, on  obtient :
           p
@@ -856,10 +945,48 @@
               ⁡
               10
     {\displaystyle \mathrm {pH(X)} =\mathrm {pH(S)} +{\frac {(E_{\mathrm {S} }-E_{\mathrm {X} })F}{RT\ln 10}}}
-Cette définition du pH a été standardisée par la norme ISO 31-8 en 1992, puis remplacée par la norme ISO-CEI 80000-9[12].
-En solution aqueuse
-Définitions approximatives
-Les manipulations liées au pH en chimie étant le plus souvent réalisées en milieu aqueux, on peut déterminer plusieurs définitions approchées du pH en solution aqueuse. En utilisant deux définitions différentes de l’activité chimique, on peut écrire les deux relations ci-dessous. Elles sont valables dans le domaine limité des solutions aqueuses de concentrations en ions inférieures à 0,1 mol L−1 et n’étant ni trop acide, ni trop basique, c’est-à-dire pour des pH entre 2 et 12 environ[13].
+Cette définition du pH a été standardisée par la norme ISO 31-8 en 1992, puis remplacée par la norme ISO-CEI 80000-9.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Potentiel_hydrogène</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Potentiel_hydrog%C3%A8ne</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Définitions</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>En solution aqueuse</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Définitions approximatives</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les manipulations liées au pH en chimie étant le plus souvent réalisées en milieu aqueux, on peut déterminer plusieurs définitions approchées du pH en solution aqueuse. En utilisant deux définitions différentes de l’activité chimique, on peut écrire les deux relations ci-dessous. Elles sont valables dans le domaine limité des solutions aqueuses de concentrations en ions inférieures à 0,1 mol L−1 et n’étant ni trop acide, ni trop basique, c’est-à-dire pour des pH entre 2 et 12 environ.
           p
           H
         =
@@ -977,31 +1104,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Potentiel_hydrog%C3%A8ne</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Potentiel_hydrog%C3%A8ne</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Potentiel_hydrogène</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Potentiel_hydrog%C3%A8ne</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Acides et bases</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Brønsted et Lowry ont donné une définition simple des concepts d’acide et de base comme étant respectivement un donneur et un accepteur de proton. D’autres conceptions de l’acidité sont utilisées dans les milieux non protiques (milieux où l’espèce échangeable n’est pas le proton), telles la théorie de Lewis :
 Exemples :
@@ -1011,31 +1140,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Potentiel_hydrog%C3%A8ne</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Potentiel_hydrog%C3%A8ne</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Potentiel_hydrogène</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Potentiel_hydrog%C3%A8ne</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Autoprotolyse</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Le pH varie dans l’intervalle défini grâce à la constante d’auto-protolyse du solvant.
 En solution aqueuse, à température et pression standard (CNTP), un pH de 7,0 indique la neutralité car l’eau, amphotère, se dissocie naturellement en ions H+ et OH− aux concentrations de 1,0 × 10−7 mol L−1. Cette dissociation est appelée autoprotolyse de l’eau :
@@ -1048,38 +1179,40 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Potentiel_hydrog%C3%A8ne</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Potentiel_hydrog%C3%A8ne</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Potentiel_hydrogène</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Potentiel_hydrog%C3%A8ne</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Influence de la pression et de la température</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">Le produit ionique de l’eau ([H+][OH−]) varie avec la pression et la température : sous 1 013 hPa et à 298 K (TPN), le produit ionique vaut 1,0116  × 10-14, d’où pKe = 13,995 ; sous 1010 Pa et à 799,85 °C, pKe n’est que de 7,68 : le pH d’une eau neutre est alors de 3,84. Sous une atmosphère de 1 013 hPa (pression de vapeur d’eau saturante), on a : 
 à 0 °C : pKe = 14,938, d’où le pH de la neutralité = 7,4690 ;
 à 25 °C : pKe = 13,995, d’où le pH de la neutralité = 6,9975 ;
 à 100 °C : pKe = 12,265, d’où le pH de la neutralité = 6,1325.
-Par conséquent, le pOH varie de la même façon et pour la même raison : la plus grande fragmentation de l'eau en proton H+ (en réalité ion hydronium H3O+) et en OH−. Dire que l'eau devient « plus acide » est donc assurément vrai, mais il est non moins vrai qu'elle devient en même temps et pour des raisons de parité « plus basique ». Néanmoins le résultat est bien qu'elle devient plus corrosive, problème étudié avec soin pour les échangeurs de centrales thermiques[14].
-Le produit ionique de l’eau varie selon l’équation suivante[15] :
+Par conséquent, le pOH varie de la même façon et pour la même raison : la plus grande fragmentation de l'eau en proton H+ (en réalité ion hydronium H3O+) et en OH−. Dire que l'eau devient « plus acide » est donc assurément vrai, mais il est non moins vrai qu'elle devient en même temps et pour des raisons de parité « plus basique ». Néanmoins le résultat est bien qu'elle devient plus corrosive, problème étudié avec soin pour les échangeurs de centrales thermiques.
+Le produit ionique de l’eau varie selon l’équation suivante :
         log
         ⁡
           K
@@ -1138,36 +1271,38 @@
 T en kelvins ;
 de : la masse volumique de l'eau exprimée en g⋅cm−3.
 Domaine d'application de la formule : T compris entre 0 et 1 000 °C, P compris entre 1 et 10 000 bars abs.
-Une autre formulation pour le calcul du pKe est celle de l'IAPWS[16]
+Une autre formulation pour le calcul du pKe est celle de l'IAPWS
 </t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Potentiel_hydrog%C3%A8ne</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Potentiel_hydrog%C3%A8ne</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Potentiel_hydrogène</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Potentiel_hydrog%C3%A8ne</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Influence du solvant</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans d’autres solvants que l’eau, le pH n’est pas fonction de la dissociation de l’eau. Par exemple, le pH de neutralité de l’acétonitrile est de 27 (TPN) et non de 7,0.
 Le pH est défini en solution non aqueuse par rapport à la concentration en protons solvatés et non pas par rapport à la concentration en protons non dissociés. En effet, dans certains solvants peu solvatants, le pH d’un acide fort et concentré n’est pas nécessairement bas. D’autre part, selon les propriétés du solvant, l’échelle de pH se trouve décalée par rapport à l’eau. Ainsi, dans l’eau, l’acide sulfurique est un acide fort, tandis que dans l’éthanol, c’est un acide faible. Travailler en milieu non aqueux rend le calcul du pH très compliqué.
@@ -1175,31 +1310,33 @@
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Potentiel_hydrog%C3%A8ne</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Potentiel_hydrog%C3%A8ne</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Potentiel_hydrogène</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Potentiel_hydrog%C3%A8ne</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Acidité et alcalinité</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t xml:space="preserve">Un pH moins élevé que celui de la neutralité (par exemple 5 pour une solution aqueuse) indique une augmentation de l’acidité, et un pH plus élevé (par exemple 9 pour une solution aqueuse) indique une augmentation de l’alcalinité, c’est-à-dire de la basicité.
 Un acide diminuera le pH d’une solution neutre ou basique ; une base augmentera le pH d’une solution acide ou neutre. Lorsque le pH d’une solution est peu sensible aux acides et aux bases, on dit qu’il s’agit d’une solution tampon (de pH) ; c’est le cas du sang, du lait ou de l’eau de mer, qui renferment des couples acido-basiques susceptibles d’amortir les fluctuations du pH, tels anhydride carbonique / hydrogénocarbonate / carbonate, acide phosphorique / hydrogénophosphate / phosphate, acide borique / borate.
@@ -1208,62 +1345,66 @@
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Potentiel_hydrog%C3%A8ne</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Potentiel_hydrog%C3%A8ne</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Potentiel_hydrogène</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Potentiel_hydrog%C3%A8ne</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Activité et concentration</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t xml:space="preserve">Pour les solutions diluées, l'activité est assimilée à la concentration. Pour des concentrations ioniques importantes, l’activité ne peut plus être assimilée à la concentration et on doit tenir compte de la force ionique, par exemple grâce à la théorie de Debye-Hückel. Le pH d’une solution décamolaire d’acide fort n’est donc pas égal à -1, tout comme le pH d’une solution décamolaire de base forte n’est pas égal à 15. L’agressivité de telles solutions et leur force ionique importante rend la mesure du pH délicate avec les habituelles électrodes de verre. On a donc recours à d’autres méthodes s’appuyant sur les indicateurs colorés (spectroscopie UV ou RMN). Pour des concentrations élevées de H+, on peut définir par analogie d’autres échelles de mesure d’acidité, telles l’échelle de Hammett H0.
 </t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Potentiel_hydrog%C3%A8ne</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Potentiel_hydrog%C3%A8ne</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Potentiel_hydrogène</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Potentiel_hydrog%C3%A8ne</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>Mesure</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
         <is>
           <t xml:space="preserve">D’après la loi de Nernst établie plus haut :
           p
@@ -1299,34 +1440,72 @@
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Potentiel_hydrog%C3%A8ne</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Potentiel_hydrog%C3%A8ne</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Potentiel_hydrogène</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Potentiel_hydrog%C3%A8ne</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>Formules de calcul approché du pH pour des solutions aqueuses</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
         <is>
           <t xml:space="preserve">À 25 °C pKe = 14.
-Cas d'un acide fort
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Potentiel_hydrogène</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Potentiel_hydrog%C3%A8ne</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Formules de calcul approché du pH pour des solutions aqueuses</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Cas d'un acide fort</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
           p
           H
         =
@@ -1426,7 +1605,43 @@
               a
     {\displaystyle \mathrm {pH} =-\log _{10}(\mathrm {H} ^{+})\approx -\log _{10}C_{\mathrm {a} }}
 .
-Cas d'une base forte
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Potentiel_hydrogène</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Potentiel_hydrog%C3%A8ne</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Formules de calcul approché du pH pour des solutions aqueuses</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Cas d'une base forte</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
           p
           H
         =
@@ -1448,7 +1663,43 @@
     {\displaystyle C_{\mathrm {b} }}
  est la concentration en base en mol·L−1.
 Cette relation est soumise aux mêmes remarques que pour le cas d’un acide fort.
-Cas d'un acide faible
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Potentiel_hydrogène</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Potentiel_hydrog%C3%A8ne</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Formules de calcul approché du pH pour des solutions aqueuses</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Cas d'un acide faible</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
           p
           H
         =
@@ -1473,8 +1724,43 @@
           K
             a
     {\displaystyle \mathrm {p} K_{\text{a}}}
- est celui de l’acide.
-Cas d'une base faible
+ est celui de l’acide.</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Potentiel_hydrogène</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Potentiel_hydrog%C3%A8ne</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Formules de calcul approché du pH pour des solutions aqueuses</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Cas d'une base faible</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
           p
           H
         =
@@ -1503,8 +1789,43 @@
           K
             a
     {\displaystyle \mathrm {p} K_{\text{a}}}
- est celui de l’acide créé.
-Cas d'un mélange de solutions de pH connus
+ est celui de l’acide créé.</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Potentiel_hydrogène</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Potentiel_hydrog%C3%A8ne</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Formules de calcul approché du pH pour des solutions aqueuses</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Cas d'un mélange de solutions de pH connus</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
           p
           H
         =
@@ -1541,64 +1862,68 @@
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Potentiel_hydrog%C3%A8ne</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Potentiel_hydrog%C3%A8ne</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Potentiel_hydrogène</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Potentiel_hydrog%C3%A8ne</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
         <is>
           <t>pH négatif</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans les solutions suffisamment diluées, l’acidité est en pratique mesurée par la concentration en ions hydronium, ou [H3O+]. Cependant, aux fortes concentrations, cet effet est en partie contrebalancé par les coefficients d’activité qui s’effondrent aux concentrations élevées. Néanmoins, il est possible d’obtenir des pH négatifs, y compris dans le contexte des séquelles minières en cas de drainage minier acide extrême[17].
-L'échelle 0-14 pour le pH est une limite conventionnelle[18]. Ainsi une solution concentrée d'acide chlorhydrique à 37 %m a un pH d'environ −1,1 quand une solution saturée d'hydroxyde de sodium a un pH d'environ 15,0[19].
-Les produits plus acides que l’acide sulfurique à 100 %, sont qualifiés de superacides[20]. Ceux-ci sont couramment utilisés, notamment comme catalyseurs pour l’isomérisation et le craquage des alcanes[21],[22].
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans les solutions suffisamment diluées, l’acidité est en pratique mesurée par la concentration en ions hydronium, ou [H3O+]. Cependant, aux fortes concentrations, cet effet est en partie contrebalancé par les coefficients d’activité qui s’effondrent aux concentrations élevées. Néanmoins, il est possible d’obtenir des pH négatifs, y compris dans le contexte des séquelles minières en cas de drainage minier acide extrême.
+L'échelle 0-14 pour le pH est une limite conventionnelle. Ainsi une solution concentrée d'acide chlorhydrique à 37 %m a un pH d'environ −1,1 quand une solution saturée d'hydroxyde de sodium a un pH d'environ 15,0.
+Les produits plus acides que l’acide sulfurique à 100 %, sont qualifiés de superacides. Ceux-ci sont couramment utilisés, notamment comme catalyseurs pour l’isomérisation et le craquage des alcanes,.
 </t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Potentiel_hydrog%C3%A8ne</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Potentiel_hydrog%C3%A8ne</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Potentiel_hydrogène</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Potentiel_hydrog%C3%A8ne</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
         <is>
           <t>pH d'un sol</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
         <is>
           <t xml:space="preserve">Le pH d’un sol est le résultat de la composition du sol (sol calcaire, résineux, etc.) et de ce qu'il reçoit (pluie, engrais, etc.). Il a une influence sur l’assimilation des nutriments et oligo-éléments par une plante.
 			Fleurs d'hortensia en sol acide.
